--- a/data/trans_orig/P6712-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>19243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11791</v>
+        <v>11816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29511</v>
+        <v>30367</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0691502637185037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04237081834132478</v>
+        <v>0.04246009899474824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1060511209700588</v>
+        <v>0.1091274730563037</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>10593</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5401</v>
+        <v>5181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18801</v>
+        <v>18346</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04743025751759854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02418230200108148</v>
+        <v>0.02319632714788248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08418169751767783</v>
+        <v>0.08214730539943209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -784,19 +784,19 @@
         <v>29836</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20010</v>
+        <v>19609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42473</v>
+        <v>41470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05947974188548292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03989193820112774</v>
+        <v>0.03909229624607685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08467313333732901</v>
+        <v>0.08267446072696857</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>12812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6352</v>
+        <v>7197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20815</v>
+        <v>22019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04604018763453455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02282469771509766</v>
+        <v>0.025862726685396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07480177636944169</v>
+        <v>0.07912671592041277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -834,19 +834,19 @@
         <v>10232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5063</v>
+        <v>5327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18839</v>
+        <v>18764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04581283347486823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02266842286155989</v>
+        <v>0.02385271232085229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08435414160625188</v>
+        <v>0.08401596995762253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -855,19 +855,19 @@
         <v>23043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14546</v>
+        <v>14863</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33756</v>
+        <v>34885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04593896144958118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02899897874013611</v>
+        <v>0.02962998012307592</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06729460420646202</v>
+        <v>0.06954621110372876</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>52727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39939</v>
+        <v>40868</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67041</v>
+        <v>68184</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1894792704337486</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1435234613276629</v>
+        <v>0.1468608035855439</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2409157626783314</v>
+        <v>0.2450244214171532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -905,19 +905,19 @@
         <v>38240</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28267</v>
+        <v>27920</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51914</v>
+        <v>50194</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1712236093982162</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1265689563006419</v>
+        <v>0.1250140655852807</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2324513541033835</v>
+        <v>0.2247466280029267</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -926,19 +926,19 @@
         <v>90967</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74504</v>
+        <v>73495</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110024</v>
+        <v>108261</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.181351198692545</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1485309310400626</v>
+        <v>0.1465192169373467</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.219341883497297</v>
+        <v>0.2158288919348698</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>63160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49989</v>
+        <v>49098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78551</v>
+        <v>77386</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2269704381198438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1796390391034781</v>
+        <v>0.1764385533568558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2822791997181384</v>
+        <v>0.2780935406467755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -976,19 +976,19 @@
         <v>61574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46852</v>
+        <v>48693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75934</v>
+        <v>76282</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.275702888389043</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2097823957408831</v>
+        <v>0.2180296612546705</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3400024360770774</v>
+        <v>0.3415592401239499</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -997,19 +997,19 @@
         <v>124734</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104581</v>
+        <v>103483</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143701</v>
+        <v>144172</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2486678639836196</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2084908697172366</v>
+        <v>0.20630206649099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2864807801038731</v>
+        <v>0.287420079305096</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>130332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>114489</v>
+        <v>112497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148142</v>
+        <v>147125</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4683598400933694</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4114254107491211</v>
+        <v>0.4042684055102435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5323592571743787</v>
+        <v>0.528706154337231</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -1047,19 +1047,19 @@
         <v>102696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88643</v>
+        <v>87745</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>119651</v>
+        <v>117481</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.459830411220274</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3969095621804451</v>
+        <v>0.3928851603656511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5357480048447267</v>
+        <v>0.526031576400337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>217</v>
@@ -1068,19 +1068,19 @@
         <v>233028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>212988</v>
+        <v>212911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>258999</v>
+        <v>258830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4645622339887712</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4246095530209237</v>
+        <v>0.4244563970511114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5163379693303198</v>
+        <v>0.5160008107426325</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>15610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9473</v>
+        <v>8870</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25373</v>
+        <v>23628</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04105627952559618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02491625643467445</v>
+        <v>0.02332888854785447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06673372974780256</v>
+        <v>0.06214395458879639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1193,19 +1193,19 @@
         <v>12298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6647</v>
+        <v>6398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20610</v>
+        <v>21919</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04859775719067427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02626434729805241</v>
+        <v>0.02528092135149357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08144091606036191</v>
+        <v>0.08661397993971914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1214,19 +1214,19 @@
         <v>27908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18757</v>
+        <v>19258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41809</v>
+        <v>40969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04406996596784742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02961997404567785</v>
+        <v>0.03041065315749097</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06602125144669302</v>
+        <v>0.06469497104062105</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>22297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14232</v>
+        <v>13896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34400</v>
+        <v>32937</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05864366188575287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03743186822985602</v>
+        <v>0.03654821918897532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0904773807194388</v>
+        <v>0.0866298793900999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1264,19 +1264,19 @@
         <v>13143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7077</v>
+        <v>6470</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21811</v>
+        <v>22516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0519358638498278</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02796639720906548</v>
+        <v>0.02556722176480344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08618583068963723</v>
+        <v>0.08897432737438253</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -1285,19 +1285,19 @@
         <v>35440</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24773</v>
+        <v>24255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47851</v>
+        <v>48200</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05596312620083845</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03911940024493184</v>
+        <v>0.03830038079029327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07556227266540697</v>
+        <v>0.07611330810167212</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>69333</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56315</v>
+        <v>55514</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85451</v>
+        <v>85147</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1823553648517491</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1481162643938761</v>
+        <v>0.1460108069095328</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2247497462043617</v>
+        <v>0.2239488665608559</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -1335,19 +1335,19 @@
         <v>54120</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41405</v>
+        <v>41055</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68896</v>
+        <v>68668</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.21385654519979</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1636141831930659</v>
+        <v>0.1622312547571248</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2722462129330155</v>
+        <v>0.271344354758301</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -1356,19 +1356,19 @@
         <v>123452</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103929</v>
+        <v>105139</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145306</v>
+        <v>145103</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1949437042125365</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1641144893914237</v>
+        <v>0.1660255822446879</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2294526550846102</v>
+        <v>0.2291322913708111</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>104816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88203</v>
+        <v>87896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121223</v>
+        <v>122536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2756807793225528</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2319878761005548</v>
+        <v>0.2311780174537102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3188352801385498</v>
+        <v>0.3222877138433203</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1406,19 +1406,19 @@
         <v>67933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54830</v>
+        <v>54164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84996</v>
+        <v>84333</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2684427892744058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2166624197569575</v>
+        <v>0.2140315945065203</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3358652517346547</v>
+        <v>0.333247610535752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -1427,19 +1427,19 @@
         <v>172749</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150650</v>
+        <v>151084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195748</v>
+        <v>197038</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2727883710378664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2378920846636748</v>
+        <v>0.2385767663942613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3091064807971252</v>
+        <v>0.3111428858145044</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>168152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148814</v>
+        <v>147581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188770</v>
+        <v>187835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.442263914414349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3914037640117419</v>
+        <v>0.3881604843222819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4964938848049196</v>
+        <v>0.49403482221051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -1477,19 +1477,19 @@
         <v>105570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90245</v>
+        <v>90118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123357</v>
+        <v>121780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4171670444853021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3566060260304351</v>
+        <v>0.3561052151787713</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.487451217404642</v>
+        <v>0.4812186074846993</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -1498,19 +1498,19 @@
         <v>273722</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249486</v>
+        <v>247551</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302758</v>
+        <v>297133</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4322348325809113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3939645585287938</v>
+        <v>0.3909084419551983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.478086365571906</v>
+        <v>0.4692040047959827</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>11364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6045</v>
+        <v>5993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19578</v>
+        <v>19725</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02498828803805032</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01329181831593225</v>
+        <v>0.01317831983560292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04305018983154431</v>
+        <v>0.04337442222374942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1623,19 +1623,19 @@
         <v>8960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4061</v>
+        <v>3999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17617</v>
+        <v>16537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03238555445794286</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01467657309232193</v>
+        <v>0.0144553930212981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0636765944355227</v>
+        <v>0.05977302767473428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1644,19 +1644,19 @@
         <v>20324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12652</v>
+        <v>11792</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31308</v>
+        <v>30811</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0277863244167701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01729724159158939</v>
+        <v>0.01612191874522775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04280250305269358</v>
+        <v>0.04212358657362295</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>24365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16040</v>
+        <v>15280</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38396</v>
+        <v>36768</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05357669922785589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03527069567189207</v>
+        <v>0.0335995577670011</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08442888309724687</v>
+        <v>0.08084980994059521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1694,19 +1694,19 @@
         <v>11184</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5993</v>
+        <v>5400</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20126</v>
+        <v>20189</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04042299791333157</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02166188838888762</v>
+        <v>0.01951936616722206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07274336915561309</v>
+        <v>0.07296991856792773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1715,19 +1715,19 @@
         <v>35549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24184</v>
+        <v>24196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50053</v>
+        <v>48867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04860127550999717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03306314106272276</v>
+        <v>0.03307945112855679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06843099566792772</v>
+        <v>0.06680899095238264</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>70348</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54736</v>
+        <v>55231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84708</v>
+        <v>88138</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1546887144260169</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1203589349809581</v>
+        <v>0.1214478128523343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1862652929629038</v>
+        <v>0.1938068321508469</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -1765,19 +1765,19 @@
         <v>47361</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34889</v>
+        <v>35369</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61309</v>
+        <v>61143</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1711816593399367</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.12610305893924</v>
+        <v>0.1278364698326947</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2215946969031737</v>
+        <v>0.2209967466682438</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>112</v>
@@ -1786,19 +1786,19 @@
         <v>117709</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>97928</v>
+        <v>99353</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>139346</v>
+        <v>140547</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1609272162240959</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1338833646521101</v>
+        <v>0.1358317258516071</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1905091659976234</v>
+        <v>0.1921510693174333</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>107633</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90082</v>
+        <v>90333</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128483</v>
+        <v>126076</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2366745774591468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1980817932144449</v>
+        <v>0.1986337853103368</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2825223778566205</v>
+        <v>0.2772297097131883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -1836,19 +1836,19 @@
         <v>68544</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55460</v>
+        <v>54897</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83945</v>
+        <v>84332</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2477479241158077</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2004542157455746</v>
+        <v>0.1984192102119952</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3034135023655402</v>
+        <v>0.3048115653342588</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -1857,19 +1857,19 @@
         <v>176177</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154258</v>
+        <v>155260</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202211</v>
+        <v>202117</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2408631013030619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.210896095264351</v>
+        <v>0.2122656167384019</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2764561161331229</v>
+        <v>0.2763271312099504</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>241061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219765</v>
+        <v>219245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262342</v>
+        <v>262896</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5300717208489302</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4832440326244933</v>
+        <v>0.4820998266672458</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5768664607260043</v>
+        <v>0.5780842614664885</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>131</v>
@@ -1907,19 +1907,19 @@
         <v>140621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123935</v>
+        <v>123852</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>157459</v>
+        <v>158278</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5082618641729811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4479534649627872</v>
+        <v>0.4476522355058275</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5691226751707543</v>
+        <v>0.5720839763218561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>356</v>
@@ -1928,19 +1928,19 @@
         <v>381682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>353290</v>
+        <v>352741</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>407962</v>
+        <v>407405</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.521822082546075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4830058808180678</v>
+        <v>0.4822548206698337</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5577511665626148</v>
+        <v>0.5569899263690606</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>13328</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7242</v>
+        <v>7075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23665</v>
+        <v>22235</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0451299317831147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02452265741870251</v>
+        <v>0.02395816307890211</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08013440229311167</v>
+        <v>0.07529193810092429</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2053,19 +2053,19 @@
         <v>11020</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5838</v>
+        <v>5943</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18579</v>
+        <v>18746</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0600046780961968</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03178453837984553</v>
+        <v>0.03235654646635771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1011629133326666</v>
+        <v>0.1020689352155145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2074,19 +2074,19 @@
         <v>24348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15707</v>
+        <v>15633</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35773</v>
+        <v>35756</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05083353537647869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03279248426897383</v>
+        <v>0.03263859919844113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07468635012508182</v>
+        <v>0.07465148159603764</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>5868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1905</v>
+        <v>1989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13771</v>
+        <v>14266</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01986893813691243</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006452219646499322</v>
+        <v>0.006735647587016642</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04663231980514935</v>
+        <v>0.04830726313450116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2124,19 +2124,19 @@
         <v>5060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12002</v>
+        <v>10201</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02755008705018564</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01056619298925969</v>
+        <v>0.01062227460794344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06534815156779848</v>
+        <v>0.05554166432327515</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2145,19 +2145,19 @@
         <v>10927</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4972</v>
+        <v>5788</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18996</v>
+        <v>19684</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0228142138156229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01038122773522024</v>
+        <v>0.0120833488107112</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03966004729975862</v>
+        <v>0.04109542417458571</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>30959</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21131</v>
+        <v>19979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43514</v>
+        <v>44498</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1048337740576266</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07155354255367272</v>
+        <v>0.06765332125052971</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1473482184454753</v>
+        <v>0.1506795541878893</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2195,19 +2195,19 @@
         <v>23332</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15000</v>
+        <v>15269</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35855</v>
+        <v>34228</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1270386929754087</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08167253896604697</v>
+        <v>0.08313775362388297</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1952271192657721</v>
+        <v>0.1863696309522828</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>47</v>
@@ -2216,19 +2216,19 @@
         <v>54291</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40393</v>
+        <v>39796</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>70535</v>
+        <v>72181</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1133480742456193</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08433266602554437</v>
+        <v>0.08308683250936581</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1472624856049262</v>
+        <v>0.1506997215027086</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>58483</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46386</v>
+        <v>46197</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73911</v>
+        <v>71750</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1980374171778722</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1570744970366119</v>
+        <v>0.1564317454413054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2502800996264131</v>
+        <v>0.242960567494759</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2266,19 +2266,19 @@
         <v>44853</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33953</v>
+        <v>33624</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58417</v>
+        <v>58930</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2442211656341046</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.184867670121886</v>
+        <v>0.1830764933090844</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3180709489437218</v>
+        <v>0.3208659064191527</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -2287,19 +2287,19 @@
         <v>103337</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86078</v>
+        <v>87296</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122846</v>
+        <v>122430</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2157462095233469</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1797138108028269</v>
+        <v>0.182255844276577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.256477911336384</v>
+        <v>0.2556091935858965</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>186677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>167533</v>
+        <v>168687</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>202120</v>
+        <v>201917</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.632129938844474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5673039943071515</v>
+        <v>0.5712094430568142</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6844223655135129</v>
+        <v>0.6837350981673308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -2337,19 +2337,19 @@
         <v>99394</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>84480</v>
+        <v>83871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114340</v>
+        <v>113975</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5411853762441043</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4599807941383402</v>
+        <v>0.4566682289948963</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6225679419922683</v>
+        <v>0.620578100351029</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>255</v>
@@ -2358,19 +2358,19 @@
         <v>286071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>263744</v>
+        <v>262550</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>307992</v>
+        <v>309143</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5972579670389323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5506437061942154</v>
+        <v>0.5481505005991211</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6430252101633973</v>
+        <v>0.6454265194851372</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>59544</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>45536</v>
+        <v>43842</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76187</v>
+        <v>74956</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04227282340093468</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03232774505266282</v>
+        <v>0.0311249107779764</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05408834818713421</v>
+        <v>0.05321449352036283</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -2483,19 +2483,19 @@
         <v>42872</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31042</v>
+        <v>30566</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56485</v>
+        <v>58146</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04576749332364551</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03313846020692449</v>
+        <v>0.0326306306470393</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06030005696160273</v>
+        <v>0.06207372580772134</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>97</v>
@@ -2504,19 +2504,19 @@
         <v>102416</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>84095</v>
+        <v>83609</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>125269</v>
+        <v>121796</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04366861873921957</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0358571024010971</v>
+        <v>0.03564960825662154</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0534129918598456</v>
+        <v>0.05193223686171825</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>65341</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49513</v>
+        <v>51281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81535</v>
+        <v>84116</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04638844712310413</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03515096598600333</v>
+        <v>0.03640632427863157</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0578848805245268</v>
+        <v>0.05971769484498222</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -2554,19 +2554,19 @@
         <v>39618</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28202</v>
+        <v>28933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55638</v>
+        <v>53610</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04229441730659632</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03010742283353166</v>
+        <v>0.03088700147344397</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05939590272114437</v>
+        <v>0.05723071393301516</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -2575,19 +2575,19 @@
         <v>104960</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84900</v>
+        <v>84413</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>125636</v>
+        <v>127398</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04475326329771778</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03620021889636022</v>
+        <v>0.03599261570862335</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05356935202318034</v>
+        <v>0.05432086987528546</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>223367</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>193436</v>
+        <v>195786</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>252538</v>
+        <v>253224</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1585773763944863</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.13732834246593</v>
+        <v>0.1389962357834377</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1792871165367223</v>
+        <v>0.1797742841224454</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>150</v>
@@ -2625,19 +2625,19 @@
         <v>163052</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>142602</v>
+        <v>137870</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>189589</v>
+        <v>187068</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1740657749037396</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1522341105452135</v>
+        <v>0.1471831182131057</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2023954708311734</v>
+        <v>0.1997037676883646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>360</v>
@@ -2646,19 +2646,19 @@
         <v>386419</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>345624</v>
+        <v>349891</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>421669</v>
+        <v>421961</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1647635498857855</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1473690086493105</v>
+        <v>0.1491883544858458</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1797935003080028</v>
+        <v>0.1799182610408781</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>334092</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>303794</v>
+        <v>303067</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>368479</v>
+        <v>371588</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2371856381791655</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.215675668893888</v>
+        <v>0.2151594125540374</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2615981603266411</v>
+        <v>0.2638052934770155</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>222</v>
@@ -2696,19 +2696,19 @@
         <v>242905</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>215967</v>
+        <v>215309</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>271902</v>
+        <v>274034</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2593123509842845</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2305549780881457</v>
+        <v>0.2298519920722295</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2902684780720766</v>
+        <v>0.2925442847821994</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>546</v>
@@ -2717,19 +2717,19 @@
         <v>576997</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>535658</v>
+        <v>539245</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>626223</v>
+        <v>621316</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2460232003146465</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2283967049013901</v>
+        <v>0.2299263902612011</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2670125304768783</v>
+        <v>0.2649202682004332</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>726223</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>687281</v>
+        <v>686843</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>764687</v>
+        <v>764457</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5155757149023095</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4879287182980568</v>
+        <v>0.4876178374904294</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5428825549750261</v>
+        <v>0.5427189465235778</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>417</v>
@@ -2767,19 +2767,19 @@
         <v>448280</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>417241</v>
+        <v>415738</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>480472</v>
+        <v>480998</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4785599634817341</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.445424658024688</v>
+        <v>0.4438200535687166</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5129258910933656</v>
+        <v>0.5134878486758043</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1090</v>
@@ -2788,19 +2788,19 @@
         <v>1174503</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1119929</v>
+        <v>1126648</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1221427</v>
+        <v>1224895</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5007913677626307</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4775215777254933</v>
+        <v>0.4803865300931536</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5207987740445209</v>
+        <v>0.5222776365361682</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>19212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11769</v>
+        <v>12365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29314</v>
+        <v>31045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06544010197629627</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04008892706077773</v>
+        <v>0.04211678809021322</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0998492568511485</v>
+        <v>0.1057454406467079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3153,19 +3153,19 @@
         <v>15522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9184</v>
+        <v>9175</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24818</v>
+        <v>24408</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05598762865244317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03312810224036783</v>
+        <v>0.03309675756823549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.089522086089745</v>
+        <v>0.0880431791836896</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3174,19 +3174,19 @@
         <v>34733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24685</v>
+        <v>25063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47694</v>
+        <v>48819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06084921913373698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04324621786894696</v>
+        <v>0.04390845625658019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0835558569241549</v>
+        <v>0.08552652332346979</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>33047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23434</v>
+        <v>22977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46074</v>
+        <v>44458</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1125662908487312</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07982232369351364</v>
+        <v>0.07826644231464691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.156938228490224</v>
+        <v>0.151433588514024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -3224,19 +3224,19 @@
         <v>37123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27781</v>
+        <v>26665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48833</v>
+        <v>48479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1339049433856038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1002095422892128</v>
+        <v>0.09618474215067035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1761471086280572</v>
+        <v>0.1748675634460937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -3245,19 +3245,19 @@
         <v>70170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54324</v>
+        <v>54704</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87213</v>
+        <v>86358</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1229300602515662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09517061343927129</v>
+        <v>0.09583641640090521</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1527892477047483</v>
+        <v>0.1512910734425084</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>76955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63162</v>
+        <v>62013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94644</v>
+        <v>93640</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2621295684098946</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2151462457767071</v>
+        <v>0.2112306563194509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.322379486140025</v>
+        <v>0.3189617472930763</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -3295,19 +3295,19 @@
         <v>76186</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61652</v>
+        <v>61868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>90217</v>
+        <v>91058</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.274809185217044</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2223842777467495</v>
+        <v>0.2231656463404453</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3254219121019132</v>
+        <v>0.3284556441232132</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -3316,19 +3316,19 @@
         <v>153141</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>133004</v>
+        <v>132904</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>175843</v>
+        <v>176414</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2682878122108346</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2330090132925492</v>
+        <v>0.2328351658004323</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3080586723411041</v>
+        <v>0.3090587544548751</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>87368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71467</v>
+        <v>71784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104703</v>
+        <v>104231</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2975967840250082</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2434346395468298</v>
+        <v>0.2445152699562566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.35664315529768</v>
+        <v>0.3550380765317075</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -3366,19 +3366,19 @@
         <v>79163</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64189</v>
+        <v>65068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96633</v>
+        <v>95823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.285548390161232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2315358997260888</v>
+        <v>0.2347066977252319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3485654996089118</v>
+        <v>0.3456434708209498</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -3387,19 +3387,19 @@
         <v>166531</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143914</v>
+        <v>145742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189334</v>
+        <v>187850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2917451129570744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2521228117740343</v>
+        <v>0.2553252547339816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3316937804113715</v>
+        <v>0.3290951110135723</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>76996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61828</v>
+        <v>60925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93804</v>
+        <v>92750</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2622672547400697</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2106011758616779</v>
+        <v>0.2075252516377489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3195194696874752</v>
+        <v>0.3159307404588311</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -3437,19 +3437,19 @@
         <v>69238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55006</v>
+        <v>54904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86022</v>
+        <v>86347</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.249749852583677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.19841302398761</v>
+        <v>0.1980460010998662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3102894777012496</v>
+        <v>0.3114635220878897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>132</v>
@@ -3458,19 +3458,19 @@
         <v>146234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125320</v>
+        <v>126516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167715</v>
+        <v>168032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2561877954467878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2195480087150997</v>
+        <v>0.221642702267692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2938206985163983</v>
+        <v>0.294375301333362</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>22287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14058</v>
+        <v>13900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33262</v>
+        <v>32597</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05707623246342144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0360026054377232</v>
+        <v>0.03559797206688943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08518273776850227</v>
+        <v>0.08348140766015678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3583,19 +3583,19 @@
         <v>17182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10337</v>
+        <v>10161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28533</v>
+        <v>26383</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06362539998069644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03827647977694569</v>
+        <v>0.03762690500019565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1056580321336004</v>
+        <v>0.09769451581233264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -3604,19 +3604,19 @@
         <v>39469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28344</v>
+        <v>28973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52395</v>
+        <v>53493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05975382214358687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04291178786555924</v>
+        <v>0.04386359997341205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07932274096405043</v>
+        <v>0.08098502873402785</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>36477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26517</v>
+        <v>25526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49193</v>
+        <v>48651</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0934166451260465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06791060383935368</v>
+        <v>0.06537099334421578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1259838603337336</v>
+        <v>0.1245948814590616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3654,19 +3654,19 @@
         <v>22783</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14912</v>
+        <v>15145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33072</v>
+        <v>33050</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08436582278804611</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05521979948331902</v>
+        <v>0.05608015482381911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1224656937473249</v>
+        <v>0.1223826570938843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -3675,19 +3675,19 @@
         <v>59260</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45903</v>
+        <v>45501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76027</v>
+        <v>75145</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08971626818114219</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06949461366538416</v>
+        <v>0.06888543940884706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1151011575745404</v>
+        <v>0.1137650690414427</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>94389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78715</v>
+        <v>75850</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112363</v>
+        <v>112070</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2417282806746309</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2015886101149832</v>
+        <v>0.1942520151490708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2877608032115204</v>
+        <v>0.2870090294103789</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -3725,19 +3725,19 @@
         <v>58128</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46753</v>
+        <v>45560</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73043</v>
+        <v>71601</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2152482822842868</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1731239636327241</v>
+        <v>0.1687087144050029</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2704752477241114</v>
+        <v>0.2651373780953577</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>148</v>
@@ -3746,19 +3746,19 @@
         <v>152517</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132340</v>
+        <v>131161</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174256</v>
+        <v>176182</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2309020847903815</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.200354896658562</v>
+        <v>0.1985696223399022</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.263814256513143</v>
+        <v>0.2667298257002085</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>120145</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101914</v>
+        <v>102222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138301</v>
+        <v>140205</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3076909916193505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2610019833487652</v>
+        <v>0.2617887077266665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3541864717046841</v>
+        <v>0.3590630649108828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3796,19 +3796,19 @@
         <v>74751</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60138</v>
+        <v>60978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88759</v>
+        <v>91451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2768001019755726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2226886323812498</v>
+        <v>0.225799704079257</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3286741443220189</v>
+        <v>0.338642021842197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -3817,19 +3817,19 @@
         <v>194896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170359</v>
+        <v>172574</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>216930</v>
+        <v>219577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2950614280751088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2579132749568993</v>
+        <v>0.2612676203677573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3284193873467059</v>
+        <v>0.3324275715936751</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>117177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101372</v>
+        <v>99564</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137785</v>
+        <v>138154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3000878501165506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2596137344636014</v>
+        <v>0.254983421212968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3528647917420398</v>
+        <v>0.3538118035537779</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>94</v>
@@ -3867,19 +3867,19 @@
         <v>97208</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82117</v>
+        <v>80186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113124</v>
+        <v>112377</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.359960392971398</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3040768602224366</v>
+        <v>0.2969286739769825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4188943696214157</v>
+        <v>0.4161302805388069</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>205</v>
@@ -3888,19 +3888,19 @@
         <v>214385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>190039</v>
+        <v>188627</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240267</v>
+        <v>236930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3245663968097807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2877084245408402</v>
+        <v>0.2855712090090556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3637498113536914</v>
+        <v>0.3586981036810221</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>12640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6625</v>
+        <v>6619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22166</v>
+        <v>21796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02770819889067503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01452268969391438</v>
+        <v>0.01450923644941318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04858907314996145</v>
+        <v>0.04777862102093321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4013,19 +4013,19 @@
         <v>11036</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5982</v>
+        <v>5925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19183</v>
+        <v>18317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03797122215207591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02058217499109534</v>
+        <v>0.02038637051208539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06600372345708613</v>
+        <v>0.0630249251749193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -4034,19 +4034,19 @@
         <v>23676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15244</v>
+        <v>15388</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35176</v>
+        <v>35553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03170217459462896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02041175648421893</v>
+        <v>0.02060495947884897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04710033236141797</v>
+        <v>0.04760589525351856</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>34422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23837</v>
+        <v>23412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47167</v>
+        <v>47022</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07545562102750258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05225216378528661</v>
+        <v>0.05132121545013864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1033944619586387</v>
+        <v>0.1030752586022855</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -4084,19 +4084,19 @@
         <v>34107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24598</v>
+        <v>24963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46165</v>
+        <v>46353</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1173546148486406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08463513687572741</v>
+        <v>0.08589257017186636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1588411653888867</v>
+        <v>0.159488777931909</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>65</v>
@@ -4105,19 +4105,19 @@
         <v>68529</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53600</v>
+        <v>53675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85600</v>
+        <v>84713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09176110519912269</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07177011556211907</v>
+        <v>0.0718711660340617</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1146190818981234</v>
+        <v>0.1134304325149141</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>91233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74599</v>
+        <v>74315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111401</v>
+        <v>109392</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1999907109931335</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1635277147359024</v>
+        <v>0.1629041458736316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2441996706513467</v>
+        <v>0.2397964273480873</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -4155,19 +4155,19 @@
         <v>63305</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51021</v>
+        <v>49995</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80367</v>
+        <v>77960</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2178154128888153</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1755498211797297</v>
+        <v>0.1720186952083013</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2765217845058531</v>
+        <v>0.268241861021174</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -4176,19 +4176,19 @@
         <v>154538</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132177</v>
+        <v>132706</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176517</v>
+        <v>177958</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.20692740250092</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1769851189676472</v>
+        <v>0.1776936360217967</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2363563800681651</v>
+        <v>0.2382867120782059</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>136628</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>119617</v>
+        <v>117952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>159592</v>
+        <v>157767</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2994996244451353</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2622095339804346</v>
+        <v>0.2585609590361959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3498383874794904</v>
+        <v>0.3458380418254804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -4226,19 +4226,19 @@
         <v>82843</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68674</v>
+        <v>68993</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98151</v>
+        <v>97981</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2850407160961032</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2362880610241511</v>
+        <v>0.237387550347581</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3377118142111109</v>
+        <v>0.3371260600047897</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>215</v>
@@ -4247,19 +4247,19 @@
         <v>219471</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>195519</v>
+        <v>197685</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246224</v>
+        <v>245502</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2938727709166119</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2618000218250919</v>
+        <v>0.2647014942191123</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3296947325858583</v>
+        <v>0.3287274963601828</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>181264</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159493</v>
+        <v>159092</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>201610</v>
+        <v>201633</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3973458446435537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3496222455092411</v>
+        <v>0.3487423680483832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.441944796602617</v>
+        <v>0.4419946582237399</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -4297,19 +4297,19 @@
         <v>99344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82579</v>
+        <v>82335</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116837</v>
+        <v>114536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.341818034014365</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2841314760551188</v>
+        <v>0.2832946989492438</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4020070043253413</v>
+        <v>0.3940884719244429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>269</v>
@@ -4318,19 +4318,19 @@
         <v>280609</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253663</v>
+        <v>255139</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>308460</v>
+        <v>309038</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3757365467887165</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3396562411504496</v>
+        <v>0.3416317859129776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.413028445084081</v>
+        <v>0.4138025850662441</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>14010</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7805</v>
+        <v>7924</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23382</v>
+        <v>22879</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0509162835854076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02836683921381531</v>
+        <v>0.02879840615586923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08497964774402764</v>
+        <v>0.08315083126179094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4443,19 +4443,19 @@
         <v>14060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7820</v>
+        <v>8068</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22660</v>
+        <v>22411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07245154721740699</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04029487063414683</v>
+        <v>0.04157463083772868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1167671050904883</v>
+        <v>0.1154817391804556</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4464,19 +4464,19 @@
         <v>28070</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18022</v>
+        <v>19407</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39896</v>
+        <v>39582</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05982312144779797</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03840824862474634</v>
+        <v>0.04135986200458525</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08502729891620486</v>
+        <v>0.08435862555788272</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>19780</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11807</v>
+        <v>11716</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31065</v>
+        <v>29212</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07188987379673044</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04291200137686781</v>
+        <v>0.04257948980725625</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.112903259142297</v>
+        <v>0.1061682716711085</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -4514,19 +4514,19 @@
         <v>7714</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3724</v>
+        <v>3737</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14776</v>
+        <v>15119</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03975124660447379</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0191915174413068</v>
+        <v>0.01925471833806554</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07613806803791864</v>
+        <v>0.07790535677600902</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -4535,19 +4535,19 @@
         <v>27495</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17729</v>
+        <v>19156</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38994</v>
+        <v>39582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05859755723108161</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03778488236446864</v>
+        <v>0.04082544157739788</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08310576013688363</v>
+        <v>0.08435808877727335</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>43769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32682</v>
+        <v>32440</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57135</v>
+        <v>57979</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1590734774831624</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.118779111420444</v>
+        <v>0.1179013799499376</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2076499417842421</v>
+        <v>0.2107188101732534</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -4585,19 +4585,19 @@
         <v>32051</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22384</v>
+        <v>22820</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43300</v>
+        <v>43628</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1651570387634621</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1153464677967265</v>
+        <v>0.1175919029243208</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2231246841989603</v>
+        <v>0.2248123071642193</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -4606,19 +4606,19 @@
         <v>75820</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59320</v>
+        <v>60294</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>91476</v>
+        <v>94383</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1615895968525595</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1264249938543682</v>
+        <v>0.1284996717116039</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1949567701916954</v>
+        <v>0.2011516276720023</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>47196</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35628</v>
+        <v>34916</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61758</v>
+        <v>61163</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1715272158772836</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1294863795285117</v>
+        <v>0.1268978377101357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2244535060152304</v>
+        <v>0.2222914793678339</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -4656,19 +4656,19 @@
         <v>40153</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29950</v>
+        <v>30378</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52533</v>
+        <v>52476</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2069094616190547</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1543320001068824</v>
+        <v>0.1565354140631755</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2707022291412907</v>
+        <v>0.2704059681744054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -4677,19 +4677,19 @@
         <v>87349</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71184</v>
+        <v>70270</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>107015</v>
+        <v>106890</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1861610709075481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1517101775729207</v>
+        <v>0.1497606719891186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.228072891800709</v>
+        <v>0.2278081544849352</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>150395</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132481</v>
+        <v>133189</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167017</v>
+        <v>167474</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5465931492574159</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4814892486674947</v>
+        <v>0.484061382701327</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6070058465326233</v>
+        <v>0.6086656814263128</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -4727,19 +4727,19 @@
         <v>100084</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87240</v>
+        <v>87408</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>113713</v>
+        <v>114901</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5157307057956024</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4495425077339441</v>
+        <v>0.4504096597979356</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5859596960503066</v>
+        <v>0.5920813732299186</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>227</v>
@@ -4748,19 +4748,19 @@
         <v>250479</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>227071</v>
+        <v>228448</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>271788</v>
+        <v>274405</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5338286535610128</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4839412411401651</v>
+        <v>0.4868754479059589</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5792424600778946</v>
+        <v>0.584820158472698</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>68148</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52895</v>
+        <v>53655</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86718</v>
+        <v>87053</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04814808245227406</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03737139836698791</v>
+        <v>0.03790846614949762</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06126777143631026</v>
+        <v>0.06150470862332801</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -4873,19 +4873,19 @@
         <v>57800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44583</v>
+        <v>43185</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75690</v>
+        <v>73376</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05600840088287285</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04320172195661936</v>
+        <v>0.0418471236485216</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07334423368645576</v>
+        <v>0.07110246729141452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -4894,19 +4894,19 @@
         <v>125948</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>105448</v>
+        <v>106285</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>149953</v>
+        <v>151025</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05146253771222648</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04308616523652213</v>
+        <v>0.04342838603748411</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06127100082051817</v>
+        <v>0.06170890585369374</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>123726</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>102015</v>
+        <v>102911</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>147916</v>
+        <v>145646</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08741492724609673</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07207578531584281</v>
+        <v>0.07270843590332934</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1045056401217327</v>
+        <v>0.1029016492621971</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>103</v>
@@ -4944,19 +4944,19 @@
         <v>101727</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>83012</v>
+        <v>83942</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>121570</v>
+        <v>121318</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09857483017892085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08043916247018564</v>
+        <v>0.08134060728415642</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1178021787847743</v>
+        <v>0.1175578527052719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>218</v>
@@ -4965,19 +4965,19 @@
         <v>225454</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>197766</v>
+        <v>199270</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>256061</v>
+        <v>254859</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09212071611493772</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0808076362478841</v>
+        <v>0.08142193396919588</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1046267438721551</v>
+        <v>0.1041359399354344</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>306347</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>275573</v>
+        <v>274767</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>339706</v>
+        <v>338857</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.216439676410764</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1946978898785908</v>
+        <v>0.1941281330305236</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2400085853492364</v>
+        <v>0.2394090277897931</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>230</v>
@@ -5015,19 +5015,19 @@
         <v>229670</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>203674</v>
+        <v>199996</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>255297</v>
+        <v>254599</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.222552053869564</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1973619062328673</v>
+        <v>0.1937977431559036</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2473846834694104</v>
+        <v>0.246708379296031</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>512</v>
@@ -5036,19 +5036,19 @@
         <v>536016</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>496128</v>
+        <v>492967</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>580439</v>
+        <v>576641</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2190170785603091</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.20271883864656</v>
+        <v>0.2014272426011033</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2371683281322257</v>
+        <v>0.2356165550346942</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>391337</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>358073</v>
+        <v>354479</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>425517</v>
+        <v>426656</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2764871441843293</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2529853809262448</v>
+        <v>0.250446164786622</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3006359157840146</v>
+        <v>0.3014406274882033</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>271</v>
@@ -5086,19 +5086,19 @@
         <v>276910</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>247415</v>
+        <v>250485</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>305735</v>
+        <v>310009</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2683281666079975</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2397477047087328</v>
+        <v>0.2427219010443383</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2962603824046975</v>
+        <v>0.3004013184855251</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>644</v>
@@ -5107,19 +5107,19 @@
         <v>668247</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>627835</v>
+        <v>624465</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>717849</v>
+        <v>712037</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2730467535204555</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2565345177324935</v>
+        <v>0.2551572695947631</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.293314265678228</v>
+        <v>0.2909395418640325</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>525832</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>490188</v>
+        <v>489278</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>562856</v>
+        <v>561248</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3715101697065359</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3463272607474643</v>
+        <v>0.3456841333658746</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.397668617708888</v>
+        <v>0.396532089139654</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>348</v>
@@ -5157,19 +5157,19 @@
         <v>365875</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>334516</v>
+        <v>334117</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>395802</v>
+        <v>397208</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3545365484606448</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3241494400637772</v>
+        <v>0.32376210791377</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3835353847446619</v>
+        <v>0.384897753431773</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>833</v>
@@ -5178,19 +5178,19 @@
         <v>891707</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>848656</v>
+        <v>837894</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>938617</v>
+        <v>938103</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3643529140920712</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3467621494691318</v>
+        <v>0.3423649469179529</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.383520500815814</v>
+        <v>0.3833104524348663</v>
       </c>
     </row>
     <row r="33">
